--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Roux/Wilhelm_Roux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Roux/Wilhelm_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Roux, né le 9 juin 1850 à Iéna et mort le 15 septembre 1924 à Halle, est un zoologiste allemand, considéré comme l’un des fondateurs de l’embryologie expérimentale.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Roux étudie notamment auprès d’Ernst Haeckel (1834-1919) à Iéna, Berlin et Strasbourg. Il devient assistant à l’Institut d’hygiène de Leipzig en 1879, puis, en 1886, professeur à l’Institut d’embryologie et de mécanique du développement à l’université de Breslau. Il dirige cet institut deux ans plus tard.
 En 1889, il vient à Innsbruck pour y enseigner l’anatomie, puis, de 1895 à 1921, il enseigne à Halle.
-Il fonde en 1894 la revue Archiv für Entwicklungsmechanik der Organismen revue prestigieuse qui porte, à partir de 1925 et jusqu’à la fin de sa parution en langue allemande, en 1975, le titre de Wilhelm Roux’ Archiv für Entwicklungsmechanik der Organismen[1]. La revue, passée à l’anglais, s'intitule aujourd’hui Roux’s archives of developmental biology.
+Il fonde en 1894 la revue Archiv für Entwicklungsmechanik der Organismen revue prestigieuse qui porte, à partir de 1925 et jusqu’à la fin de sa parution en langue allemande, en 1975, le titre de Wilhelm Roux’ Archiv für Entwicklungsmechanik der Organismen. La revue, passée à l’anglais, s'intitule aujourd’hui Roux’s archives of developmental biology.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Geschichtliche Abhandlung über Entwicklungsmechanik (deux volumes, 1895)
 Der Kampf der Teile im Organismus (1881)
